--- a/Test Conditions and Test cases  for Mars Share Skill & Manage Listings .xlsx
+++ b/Test Conditions and Test cases  for Mars Share Skill & Manage Listings .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR.Mateo\MVP\marsframework-master\marsframework-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9636B97-7117-4A04-BD92-E84C976FB1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B97571B-FD94-48A2-8EA8-9E13FA35D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Conditions-ShareSkill" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="284">
   <si>
     <t>ID</t>
   </si>
@@ -359,29 +359,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Click on "Sign in" in home page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Login with Valid Credentials Username: vidhyav9@gmail.com Password:Ithika2015</t>
     </r>
   </si>
   <si>
@@ -2454,6 +2431,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2475,19 +2458,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2830,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F56" sqref="E56:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,7 +2890,7 @@
       <c r="B6" s="9"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2947,7 +2924,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2973,7 +2950,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2981,7 +2958,7 @@
       <c r="B14" s="9"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2989,7 +2966,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3041,7 +3018,7 @@
         <v>67</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3049,7 +3026,7 @@
       <c r="B22" s="9"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,7 +3044,7 @@
         <v>68</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3075,7 +3052,7 @@
       <c r="B25" s="9"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,7 +3070,7 @@
         <v>72</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,7 +3078,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,7 +3176,7 @@
         <v>83</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3207,7 +3184,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="23"/>
       <c r="D41" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3215,7 +3192,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3223,7 +3200,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3239,7 +3216,7 @@
       <c r="B45" s="9"/>
       <c r="C45" s="23"/>
       <c r="D45" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,7 +3224,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,7 +3232,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="23"/>
       <c r="D47" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3263,7 +3240,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="23"/>
       <c r="D48" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3283,10 +3260,10 @@
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="23" t="s">
         <v>273</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>274</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -3299,7 +3276,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
@@ -3312,7 +3289,7 @@
       <c r="B52" s="9"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
@@ -3369,7 +3346,7 @@
         <v>89</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3377,7 +3354,7 @@
       <c r="B59" s="9"/>
       <c r="C59" s="23"/>
       <c r="D59" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3406,7 +3383,7 @@
     </row>
     <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="23" t="s">
@@ -3487,10 +3464,10 @@
       <c r="Z1" s="16"/>
     </row>
     <row r="2" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -3500,9 +3477,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="30"/>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="25" t="s">
         <v>98</v>
       </c>
@@ -3510,34 +3487,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="30"/>
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="30"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C6" s="25"/>
     </row>
-    <row r="7" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -3547,9 +3524,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="31"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="25" t="s">
         <v>98</v>
       </c>
@@ -3557,51 +3534,51 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="31"/>
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="31"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="31"/>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="24" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -3611,9 +3588,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="25" t="s">
         <v>98</v>
       </c>
@@ -3621,56 +3598,56 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="26"/>
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26"/>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="26"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" s="24"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>120</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>25</v>
@@ -3679,9 +3656,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="26"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="25" t="s">
         <v>98</v>
       </c>
@@ -3689,55 +3666,55 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="26"/>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="26"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="26"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="26"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" s="24"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="34" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -3747,9 +3724,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="32"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="25" t="s">
         <v>98</v>
       </c>
@@ -3757,41 +3734,41 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="32"/>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="32"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="32"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="19" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="24" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="24" t="s">
-        <v>111</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>38</v>
@@ -3802,11 +3779,11 @@
       <c r="C33" s="24"/>
       <c r="D33" s="19"/>
     </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -3816,9 +3793,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="26"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="25" t="s">
         <v>98</v>
       </c>
@@ -3826,41 +3803,41 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="26"/>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="26"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="26"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="26"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>40</v>
@@ -3871,12 +3848,12 @@
       <c r="C40" s="24"/>
       <c r="D40" s="19"/>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>121</v>
+      <c r="B41" s="28" t="s">
+        <v>120</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>25</v>
@@ -3885,9 +3862,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="26"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="25" t="s">
         <v>98</v>
       </c>
@@ -3895,51 +3872,51 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="26"/>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="26"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="26"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="26"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="33" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="24" t="s">
@@ -3949,9 +3926,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="31"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="25" t="s">
         <v>98</v>
       </c>
@@ -3959,52 +3936,52 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="31"/>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="31"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="29"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D53" s="19" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C53" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="25"/>
       <c r="D54" s="19"/>
     </row>
-    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>122</v>
+      <c r="B55" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>25</v>
@@ -4013,9 +3990,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="26"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="25" t="s">
         <v>98</v>
       </c>
@@ -4023,56 +4000,56 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="26"/>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="29"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="26"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="26"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="29"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="26"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" s="25"/>
       <c r="D61" s="19"/>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>105</v>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>25</v>
@@ -4081,9 +4058,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="26"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="29"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="25" t="s">
         <v>98</v>
       </c>
@@ -4091,64 +4068,64 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="26"/>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="29"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="26"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="29"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="26"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="29"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="29"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D67" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="25" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="29"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="24" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="29"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D69" s="19" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,12 +4133,12 @@
       <c r="C70" s="24"/>
       <c r="D70" s="19"/>
     </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>123</v>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>25</v>
@@ -4170,9 +4147,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="26"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="29"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="25" t="s">
         <v>98</v>
       </c>
@@ -4180,71 +4157,71 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="26"/>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="29"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
-      <c r="B74" s="26"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="29"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="26"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="29"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="29"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D76" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="25" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="29"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D76" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="26"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D78" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="27" t="s">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C80" s="24" t="s">
@@ -4254,9 +4231,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="26"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="29"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="25" t="s">
         <v>98</v>
       </c>
@@ -4264,44 +4241,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="26"/>
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="29"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="26"/>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="29"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="26"/>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="29"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="19" t="s">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="29"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="24" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="24" t="s">
+      <c r="D85" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4309,11 +4286,11 @@
       <c r="C86" s="24"/>
       <c r="D86" s="19"/>
     </row>
-    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C87" s="24" t="s">
@@ -4323,9 +4300,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="26"/>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="29"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="25" t="s">
         <v>98</v>
       </c>
@@ -4333,54 +4310,54 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
-      <c r="B89" s="26"/>
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="29"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D89" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
-      <c r="B90" s="26"/>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="29"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D90" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
-      <c r="B91" s="26"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="29"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D91" s="19" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="29"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="24" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="24" t="s">
+      <c r="D92" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="19" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="29"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="19" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4388,11 +4365,11 @@
       <c r="C94" s="24"/>
       <c r="D94" s="19"/>
     </row>
-    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B95" s="26" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C95" s="24" t="s">
@@ -4402,9 +4379,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="26"/>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="29"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="25" t="s">
         <v>98</v>
       </c>
@@ -4412,44 +4389,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="27"/>
-      <c r="B97" s="26"/>
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="29"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D97" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="27"/>
-      <c r="B98" s="26"/>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="29"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D98" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
-      <c r="B99" s="26"/>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="29"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D99" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="26"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="29"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4457,12 +4434,12 @@
       <c r="C101" s="24"/>
       <c r="D101" s="19"/>
     </row>
-    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="27" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B102" s="26" t="s">
-        <v>147</v>
+      <c r="B102" s="28" t="s">
+        <v>146</v>
       </c>
       <c r="C102" s="24" t="s">
         <v>25</v>
@@ -4471,9 +4448,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="27"/>
-      <c r="B103" s="26"/>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="29"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="25" t="s">
         <v>98</v>
       </c>
@@ -4481,46 +4458,46 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="27"/>
-      <c r="B104" s="26"/>
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="29"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="27"/>
-      <c r="B105" s="26"/>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="29"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="27"/>
-      <c r="B106" s="26"/>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="29"/>
+      <c r="B106" s="28"/>
       <c r="C106" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C107" s="24"/>
       <c r="D107" s="19"/>
     </row>
-    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B108" s="26" t="s">
-        <v>148</v>
+      <c r="B108" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>25</v>
@@ -4529,9 +4506,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="27"/>
-      <c r="B109" s="26"/>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="29"/>
+      <c r="B109" s="28"/>
       <c r="C109" s="25" t="s">
         <v>98</v>
       </c>
@@ -4539,34 +4516,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="27"/>
-      <c r="B110" s="26"/>
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="29"/>
+      <c r="B110" s="28"/>
       <c r="C110" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="27"/>
-      <c r="B111" s="26"/>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="29"/>
+      <c r="B111" s="28"/>
       <c r="C111" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="27"/>
-      <c r="B112" s="26"/>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="29"/>
+      <c r="B112" s="28"/>
       <c r="C112" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4574,12 +4551,12 @@
       <c r="C113" s="24"/>
       <c r="D113" s="19"/>
     </row>
-    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="27" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B114" s="26" t="s">
-        <v>179</v>
+      <c r="B114" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="C114" s="24" t="s">
         <v>25</v>
@@ -4588,9 +4565,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="27"/>
-      <c r="B115" s="26"/>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="29"/>
+      <c r="B115" s="28"/>
       <c r="C115" s="25" t="s">
         <v>98</v>
       </c>
@@ -4598,34 +4575,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="27"/>
-      <c r="B116" s="26"/>
+    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="29"/>
+      <c r="B116" s="28"/>
       <c r="C116" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="27"/>
-      <c r="B117" s="26"/>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="29"/>
+      <c r="B117" s="28"/>
       <c r="C117" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="27"/>
-      <c r="B118" s="26"/>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="29"/>
+      <c r="B118" s="28"/>
       <c r="C118" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4633,12 +4610,12 @@
       <c r="C119" s="24"/>
       <c r="D119" s="19"/>
     </row>
-    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="27" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B120" s="26" t="s">
-        <v>180</v>
+      <c r="B120" s="28" t="s">
+        <v>179</v>
       </c>
       <c r="C120" s="24" t="s">
         <v>25</v>
@@ -4647,9 +4624,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="27"/>
-      <c r="B121" s="26"/>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="29"/>
+      <c r="B121" s="28"/>
       <c r="C121" s="25" t="s">
         <v>98</v>
       </c>
@@ -4657,34 +4634,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="27"/>
-      <c r="B122" s="26"/>
+    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="29"/>
+      <c r="B122" s="28"/>
       <c r="C122" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D122" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="27"/>
-      <c r="B123" s="26"/>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="29"/>
+      <c r="B123" s="28"/>
       <c r="C123" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A124" s="27"/>
-      <c r="B124" s="26"/>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="29"/>
+      <c r="B124" s="28"/>
       <c r="C124" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4692,12 +4669,12 @@
       <c r="C125" s="24"/>
       <c r="D125" s="19"/>
     </row>
-    <row r="126" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="27" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B126" s="26" t="s">
-        <v>159</v>
+      <c r="B126" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="C126" s="24" t="s">
         <v>25</v>
@@ -4706,9 +4683,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="27"/>
-      <c r="B127" s="26"/>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="29"/>
+      <c r="B127" s="28"/>
       <c r="C127" s="25" t="s">
         <v>98</v>
       </c>
@@ -4716,34 +4693,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="27"/>
-      <c r="B128" s="26"/>
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="29"/>
+      <c r="B128" s="28"/>
       <c r="C128" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D128" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="27"/>
-      <c r="B129" s="26"/>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="29"/>
+      <c r="B129" s="28"/>
       <c r="C129" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D129" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="27"/>
-      <c r="B130" s="26"/>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="29"/>
+      <c r="B130" s="28"/>
       <c r="C130" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D130" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="D130" s="19" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4751,12 +4728,12 @@
       <c r="C131" s="24"/>
       <c r="D131" s="19"/>
     </row>
-    <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="27" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B132" s="26" t="s">
-        <v>160</v>
+      <c r="B132" s="28" t="s">
+        <v>159</v>
       </c>
       <c r="C132" s="24" t="s">
         <v>25</v>
@@ -4765,9 +4742,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="27"/>
-      <c r="B133" s="26"/>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="29"/>
+      <c r="B133" s="28"/>
       <c r="C133" s="25" t="s">
         <v>98</v>
       </c>
@@ -4775,34 +4752,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="27"/>
-      <c r="B134" s="26"/>
+    <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="29"/>
+      <c r="B134" s="28"/>
       <c r="C134" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D134" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="27"/>
-      <c r="B135" s="26"/>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="29"/>
+      <c r="B135" s="28"/>
       <c r="C135" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D135" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="27"/>
-      <c r="B136" s="26"/>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="29"/>
+      <c r="B136" s="28"/>
       <c r="C136" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D136" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="D136" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4810,11 +4787,11 @@
       <c r="C137" s="24"/>
       <c r="D137" s="19"/>
     </row>
-    <row r="138" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="27" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B138" s="26" t="s">
+      <c r="B138" s="28" t="s">
         <v>73</v>
       </c>
       <c r="C138" s="24" t="s">
@@ -4824,9 +4801,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="27"/>
-      <c r="B139" s="26"/>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="29"/>
+      <c r="B139" s="28"/>
       <c r="C139" s="25" t="s">
         <v>98</v>
       </c>
@@ -4834,34 +4811,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="27"/>
-      <c r="B140" s="26"/>
+    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="29"/>
+      <c r="B140" s="28"/>
       <c r="C140" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D140" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="27"/>
-      <c r="B141" s="26"/>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="29"/>
+      <c r="B141" s="28"/>
       <c r="C141" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D141" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="27"/>
-      <c r="B142" s="26"/>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="29"/>
+      <c r="B142" s="28"/>
       <c r="C142" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D142" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="D142" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4869,12 +4846,12 @@
       <c r="C143" s="24"/>
       <c r="D143" s="19"/>
     </row>
-    <row r="144" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144" s="27" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B144" s="26" t="s">
-        <v>165</v>
+      <c r="B144" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="C144" s="24" t="s">
         <v>25</v>
@@ -4883,9 +4860,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="27"/>
-      <c r="B145" s="26"/>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="29"/>
+      <c r="B145" s="28"/>
       <c r="C145" s="25" t="s">
         <v>98</v>
       </c>
@@ -4893,34 +4870,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="27"/>
-      <c r="B146" s="26"/>
+    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="29"/>
+      <c r="B146" s="28"/>
       <c r="C146" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D146" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="27"/>
-      <c r="B147" s="26"/>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="29"/>
+      <c r="B147" s="28"/>
       <c r="C147" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D147" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="27"/>
-      <c r="B148" s="26"/>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="29"/>
+      <c r="B148" s="28"/>
       <c r="C148" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D148" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="D148" s="19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4929,11 +4906,11 @@
       <c r="C149" s="25"/>
       <c r="D149" s="19"/>
     </row>
-    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="27" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B150" s="26" t="s">
+      <c r="B150" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C150" s="24" t="s">
@@ -4943,9 +4920,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="27"/>
-      <c r="B151" s="26"/>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="29"/>
+      <c r="B151" s="28"/>
       <c r="C151" s="25" t="s">
         <v>98</v>
       </c>
@@ -4953,34 +4930,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="27"/>
-      <c r="B152" s="26"/>
+    <row r="152" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="29"/>
+      <c r="B152" s="28"/>
       <c r="C152" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D152" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="27"/>
-      <c r="B153" s="26"/>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="29"/>
+      <c r="B153" s="28"/>
       <c r="C153" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D153" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="27"/>
-      <c r="B154" s="26"/>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="29"/>
+      <c r="B154" s="28"/>
       <c r="C154" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D154" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="D154" s="19" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4989,11 +4966,11 @@
       <c r="C155" s="25"/>
       <c r="D155" s="19"/>
     </row>
-    <row r="156" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="27" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B156" s="26" t="s">
+      <c r="B156" s="28" t="s">
         <v>76</v>
       </c>
       <c r="C156" s="24" t="s">
@@ -5003,9 +4980,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="27"/>
-      <c r="B157" s="26"/>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="29"/>
+      <c r="B157" s="28"/>
       <c r="C157" s="25" t="s">
         <v>98</v>
       </c>
@@ -5013,34 +4990,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="27"/>
-      <c r="B158" s="26"/>
+    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="29"/>
+      <c r="B158" s="28"/>
       <c r="C158" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D158" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="27"/>
-      <c r="B159" s="26"/>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="29"/>
+      <c r="B159" s="28"/>
       <c r="C159" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D159" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="27"/>
-      <c r="B160" s="26"/>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="29"/>
+      <c r="B160" s="28"/>
       <c r="C160" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D160" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="D160" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5049,11 +5026,11 @@
       <c r="C161" s="25"/>
       <c r="D161" s="19"/>
     </row>
-    <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="B162" s="26" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B162" s="28" t="s">
         <v>77</v>
       </c>
       <c r="C162" s="24" t="s">
@@ -5063,9 +5040,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="27"/>
-      <c r="B163" s="26"/>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="29"/>
+      <c r="B163" s="28"/>
       <c r="C163" s="25" t="s">
         <v>98</v>
       </c>
@@ -5073,44 +5050,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="27"/>
-      <c r="B164" s="26"/>
+    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="29"/>
+      <c r="B164" s="28"/>
       <c r="C164" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D164" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="27"/>
-      <c r="B165" s="26"/>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="29"/>
+      <c r="B165" s="28"/>
       <c r="C165" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D165" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A166" s="27"/>
-      <c r="B166" s="26"/>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="29"/>
+      <c r="B166" s="28"/>
       <c r="C166" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D166" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D166" s="19" t="s">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="29"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="25" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="27"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="25" t="s">
+      <c r="D167" s="19" t="s">
         <v>172</v>
-      </c>
-      <c r="D167" s="19" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5119,11 +5096,11 @@
       <c r="C168" s="25"/>
       <c r="D168" s="19"/>
     </row>
-    <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A169" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B169" s="26" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" s="28" t="s">
         <v>78</v>
       </c>
       <c r="C169" s="24" t="s">
@@ -5133,9 +5110,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="27"/>
-      <c r="B170" s="26"/>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="29"/>
+      <c r="B170" s="28"/>
       <c r="C170" s="25" t="s">
         <v>98</v>
       </c>
@@ -5143,44 +5120,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="27"/>
-      <c r="B171" s="26"/>
+    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="29"/>
+      <c r="B171" s="28"/>
       <c r="C171" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D171" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="27"/>
-      <c r="B172" s="26"/>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="29"/>
+      <c r="B172" s="28"/>
       <c r="C172" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D172" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="27"/>
-      <c r="B173" s="26"/>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="29"/>
+      <c r="B173" s="28"/>
       <c r="C173" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D173" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D173" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="27"/>
-      <c r="B174" s="26"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="29"/>
+      <c r="B174" s="28"/>
       <c r="C174" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D174" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="D174" s="19" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5189,11 +5166,11 @@
       <c r="C175" s="25"/>
       <c r="D175" s="19"/>
     </row>
-    <row r="176" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="B176" s="26" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176" s="28" t="s">
         <v>79</v>
       </c>
       <c r="C176" s="24" t="s">
@@ -5203,9 +5180,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="27"/>
-      <c r="B177" s="26"/>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="29"/>
+      <c r="B177" s="28"/>
       <c r="C177" s="25" t="s">
         <v>98</v>
       </c>
@@ -5213,44 +5190,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" s="27"/>
-      <c r="B178" s="26"/>
+    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="29"/>
+      <c r="B178" s="28"/>
       <c r="C178" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D178" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="27"/>
-      <c r="B179" s="26"/>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="29"/>
+      <c r="B179" s="28"/>
       <c r="C179" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D179" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A180" s="27"/>
-      <c r="B180" s="26"/>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="29"/>
+      <c r="B180" s="28"/>
       <c r="C180" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D180" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D180" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="27"/>
-      <c r="B181" s="26"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="29"/>
+      <c r="B181" s="28"/>
       <c r="C181" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D181" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="D181" s="19" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5259,11 +5236,11 @@
       <c r="C182" s="25"/>
       <c r="D182" s="19"/>
     </row>
-    <row r="183" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B183" s="26" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B183" s="28" t="s">
         <v>80</v>
       </c>
       <c r="C183" s="24" t="s">
@@ -5273,9 +5250,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="27"/>
-      <c r="B184" s="26"/>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="29"/>
+      <c r="B184" s="28"/>
       <c r="C184" s="25" t="s">
         <v>98</v>
       </c>
@@ -5283,44 +5260,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" s="27"/>
-      <c r="B185" s="26"/>
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="29"/>
+      <c r="B185" s="28"/>
       <c r="C185" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D185" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="27"/>
-      <c r="B186" s="26"/>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="29"/>
+      <c r="B186" s="28"/>
       <c r="C186" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D186" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A187" s="27"/>
-      <c r="B187" s="26"/>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="29"/>
+      <c r="B187" s="28"/>
       <c r="C187" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D187" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D187" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="27"/>
-      <c r="B188" s="26"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="29"/>
+      <c r="B188" s="28"/>
       <c r="C188" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D188" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="D188" s="19" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5329,11 +5306,11 @@
       <c r="C189" s="25"/>
       <c r="D189" s="19"/>
     </row>
-    <row r="190" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B190" s="26" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" s="28" t="s">
         <v>81</v>
       </c>
       <c r="C190" s="24" t="s">
@@ -5343,9 +5320,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="27"/>
-      <c r="B191" s="26"/>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="29"/>
+      <c r="B191" s="28"/>
       <c r="C191" s="25" t="s">
         <v>98</v>
       </c>
@@ -5353,44 +5330,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A192" s="27"/>
-      <c r="B192" s="26"/>
+    <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="29"/>
+      <c r="B192" s="28"/>
       <c r="C192" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D192" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="27"/>
-      <c r="B193" s="26"/>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="29"/>
+      <c r="B193" s="28"/>
       <c r="C193" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D193" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A194" s="27"/>
-      <c r="B194" s="26"/>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="29"/>
+      <c r="B194" s="28"/>
       <c r="C194" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D194" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D194" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="27"/>
-      <c r="B195" s="26"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="29"/>
+      <c r="B195" s="28"/>
       <c r="C195" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D195" s="19" t="s">
         <v>187</v>
-      </c>
-      <c r="D195" s="19" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5399,11 +5376,11 @@
       <c r="C196" s="25"/>
       <c r="D196" s="19"/>
     </row>
-    <row r="197" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A197" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B197" s="26" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C197" s="24" t="s">
@@ -5413,9 +5390,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="27"/>
-      <c r="B198" s="26"/>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="29"/>
+      <c r="B198" s="28"/>
       <c r="C198" s="25" t="s">
         <v>98</v>
       </c>
@@ -5423,44 +5400,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A199" s="27"/>
-      <c r="B199" s="26"/>
+    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="29"/>
+      <c r="B199" s="28"/>
       <c r="C199" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D199" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="27"/>
-      <c r="B200" s="26"/>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="29"/>
+      <c r="B200" s="28"/>
       <c r="C200" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D200" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A201" s="27"/>
-      <c r="B201" s="26"/>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="29"/>
+      <c r="B201" s="28"/>
       <c r="C201" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D201" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D201" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="27"/>
-      <c r="B202" s="26"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="29"/>
+      <c r="B202" s="28"/>
       <c r="C202" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D202" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="D202" s="19" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5469,12 +5446,12 @@
       <c r="C203" s="25"/>
       <c r="D203" s="19"/>
     </row>
-    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A204" s="27" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B204" s="26" t="s">
-        <v>106</v>
+      <c r="B204" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="C204" s="24" t="s">
         <v>25</v>
@@ -5483,9 +5460,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="27"/>
-      <c r="B205" s="26"/>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="29"/>
+      <c r="B205" s="28"/>
       <c r="C205" s="25" t="s">
         <v>98</v>
       </c>
@@ -5493,34 +5470,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A206" s="27"/>
-      <c r="B206" s="26"/>
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="29"/>
+      <c r="B206" s="28"/>
       <c r="C206" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D206" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="27"/>
-      <c r="B207" s="26"/>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="29"/>
+      <c r="B207" s="28"/>
       <c r="C207" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D207" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A208" s="27"/>
-      <c r="B208" s="26"/>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="29"/>
+      <c r="B208" s="28"/>
       <c r="C208" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D208" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="D208" s="19" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5529,12 +5506,12 @@
       <c r="C209" s="25"/>
       <c r="D209" s="19"/>
     </row>
-    <row r="210" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A210" s="27" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B210" s="26" t="s">
-        <v>107</v>
+      <c r="B210" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="C210" s="24" t="s">
         <v>25</v>
@@ -5543,9 +5520,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="27"/>
-      <c r="B211" s="26"/>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="29"/>
+      <c r="B211" s="28"/>
       <c r="C211" s="25" t="s">
         <v>98</v>
       </c>
@@ -5553,34 +5530,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A212" s="27"/>
-      <c r="B212" s="26"/>
+    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="29"/>
+      <c r="B212" s="28"/>
       <c r="C212" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D212" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="27"/>
-      <c r="B213" s="26"/>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="29"/>
+      <c r="B213" s="28"/>
       <c r="C213" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D213" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A214" s="27"/>
-      <c r="B214" s="26"/>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="29"/>
+      <c r="B214" s="28"/>
       <c r="C214" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5589,12 +5566,12 @@
       <c r="C215" s="25"/>
       <c r="D215" s="19"/>
     </row>
-    <row r="216" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A216" s="27" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B216" s="26" t="s">
-        <v>176</v>
+      <c r="B216" s="28" t="s">
+        <v>175</v>
       </c>
       <c r="C216" s="24" t="s">
         <v>25</v>
@@ -5603,9 +5580,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="27"/>
-      <c r="B217" s="26"/>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="29"/>
+      <c r="B217" s="28"/>
       <c r="C217" s="25" t="s">
         <v>98</v>
       </c>
@@ -5613,44 +5590,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A218" s="27"/>
-      <c r="B218" s="26"/>
+    <row r="218" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="29"/>
+      <c r="B218" s="28"/>
       <c r="C218" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D218" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="27"/>
-      <c r="B219" s="26"/>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="29"/>
+      <c r="B219" s="28"/>
       <c r="C219" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D219" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A220" s="27"/>
-      <c r="B220" s="26"/>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="29"/>
+      <c r="B220" s="28"/>
       <c r="C220" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D220" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="29"/>
+      <c r="B221" s="28"/>
+      <c r="C221" s="24" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A221" s="27"/>
-      <c r="B221" s="26"/>
-      <c r="C221" s="24" t="s">
+      <c r="D221" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="D221" s="19" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5659,12 +5636,12 @@
       <c r="C222" s="25"/>
       <c r="D222" s="19"/>
     </row>
-    <row r="223" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A223" s="27" t="s">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B223" s="26" t="s">
-        <v>201</v>
+      <c r="B223" s="28" t="s">
+        <v>200</v>
       </c>
       <c r="C223" s="24" t="s">
         <v>25</v>
@@ -5673,9 +5650,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="27"/>
-      <c r="B224" s="26"/>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="29"/>
+      <c r="B224" s="28"/>
       <c r="C224" s="25" t="s">
         <v>98</v>
       </c>
@@ -5683,54 +5660,54 @@
         <v>97</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A225" s="27"/>
-      <c r="B225" s="26"/>
+    <row r="225" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="29"/>
+      <c r="B225" s="28"/>
       <c r="C225" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D225" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="27"/>
-      <c r="B226" s="26"/>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="29"/>
+      <c r="B226" s="28"/>
       <c r="C226" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D226" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="27"/>
-      <c r="B227" s="26"/>
+      <c r="A227" s="29"/>
+      <c r="B227" s="28"/>
       <c r="C227" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D227" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="29"/>
+      <c r="B228" s="28"/>
+      <c r="C228" s="24" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="27"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="24" t="s">
+      <c r="D228" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D228" s="19" t="s">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="29"/>
+      <c r="B229" s="28"/>
+      <c r="C229" s="24" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A229" s="27"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="24" t="s">
-        <v>200</v>
-      </c>
       <c r="D229" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,11 +5716,11 @@
       <c r="C230" s="24"/>
       <c r="D230" s="19"/>
     </row>
-    <row r="231" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A231" s="27" t="s">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B231" s="26" t="s">
+      <c r="B231" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C231" s="24" t="s">
@@ -5753,9 +5730,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="27"/>
-      <c r="B232" s="26"/>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="29"/>
+      <c r="B232" s="28"/>
       <c r="C232" s="25" t="s">
         <v>98</v>
       </c>
@@ -5763,44 +5740,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A233" s="27"/>
-      <c r="B233" s="26"/>
+    <row r="233" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="29"/>
+      <c r="B233" s="28"/>
       <c r="C233" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D233" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="27"/>
-      <c r="B234" s="26"/>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="29"/>
+      <c r="B234" s="28"/>
       <c r="C234" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D234" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A235" s="27"/>
-      <c r="B235" s="26"/>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="29"/>
+      <c r="B235" s="28"/>
       <c r="C235" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D235" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="27"/>
-      <c r="B236" s="26"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="29"/>
+      <c r="B236" s="28"/>
       <c r="C236" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5809,12 +5786,12 @@
       <c r="C237" s="24"/>
       <c r="D237" s="19"/>
     </row>
-    <row r="238" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A238" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B238" s="26" t="s">
-        <v>203</v>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B238" s="28" t="s">
+        <v>202</v>
       </c>
       <c r="C238" s="24" t="s">
         <v>25</v>
@@ -5823,9 +5800,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="27"/>
-      <c r="B239" s="26"/>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="29"/>
+      <c r="B239" s="28"/>
       <c r="C239" s="25" t="s">
         <v>98</v>
       </c>
@@ -5833,34 +5810,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A240" s="27"/>
-      <c r="B240" s="26"/>
+    <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="29"/>
+      <c r="B240" s="28"/>
       <c r="C240" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D240" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="27"/>
-      <c r="B241" s="26"/>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="29"/>
+      <c r="B241" s="28"/>
       <c r="C241" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D241" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A242" s="27"/>
-      <c r="B242" s="26"/>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="29"/>
+      <c r="B242" s="28"/>
       <c r="C242" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D242" s="19" t="s">
         <v>204</v>
-      </c>
-      <c r="D242" s="19" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5869,12 +5846,12 @@
       <c r="C243" s="24"/>
       <c r="D243" s="19"/>
     </row>
-    <row r="244" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A244" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B244" s="26" t="s">
-        <v>108</v>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B244" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="C244" s="24" t="s">
         <v>25</v>
@@ -5883,9 +5860,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="27"/>
-      <c r="B245" s="26"/>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="29"/>
+      <c r="B245" s="28"/>
       <c r="C245" s="25" t="s">
         <v>98</v>
       </c>
@@ -5893,34 +5870,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A246" s="27"/>
-      <c r="B246" s="26"/>
+    <row r="246" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="29"/>
+      <c r="B246" s="28"/>
       <c r="C246" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D246" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="27"/>
-      <c r="B247" s="26"/>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="29"/>
+      <c r="B247" s="28"/>
       <c r="C247" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D247" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="27"/>
-      <c r="B248" s="26"/>
+      <c r="A248" s="29"/>
+      <c r="B248" s="28"/>
       <c r="C248" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D248" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,12 +5906,12 @@
       <c r="C249" s="24"/>
       <c r="D249" s="19"/>
     </row>
-    <row r="250" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A250" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B250" s="26" t="s">
-        <v>177</v>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B250" s="28" t="s">
+        <v>176</v>
       </c>
       <c r="C250" s="24" t="s">
         <v>25</v>
@@ -5943,9 +5920,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="27"/>
-      <c r="B251" s="26"/>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="29"/>
+      <c r="B251" s="28"/>
       <c r="C251" s="25" t="s">
         <v>98</v>
       </c>
@@ -5953,44 +5930,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" s="27"/>
-      <c r="B252" s="26"/>
+    <row r="252" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="29"/>
+      <c r="B252" s="28"/>
       <c r="C252" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D252" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" s="27"/>
-      <c r="B253" s="26"/>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="29"/>
+      <c r="B253" s="28"/>
       <c r="C253" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D253" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A254" s="27"/>
-      <c r="B254" s="26"/>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="29"/>
+      <c r="B254" s="28"/>
       <c r="C254" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D254" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="29"/>
+      <c r="B255" s="28"/>
+      <c r="C255" s="24" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A255" s="27"/>
-      <c r="B255" s="26"/>
-      <c r="C255" s="24" t="s">
+      <c r="D255" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="D255" s="19" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5999,12 +5976,12 @@
       <c r="C256" s="24"/>
       <c r="D256" s="19"/>
     </row>
-    <row r="257" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A257" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B257" s="26" t="s">
-        <v>178</v>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B257" s="28" t="s">
+        <v>177</v>
       </c>
       <c r="C257" s="24" t="s">
         <v>25</v>
@@ -6013,9 +5990,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="27"/>
-      <c r="B258" s="26"/>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="29"/>
+      <c r="B258" s="28"/>
       <c r="C258" s="25" t="s">
         <v>98</v>
       </c>
@@ -6023,44 +6000,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A259" s="27"/>
-      <c r="B259" s="26"/>
+    <row r="259" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="29"/>
+      <c r="B259" s="28"/>
       <c r="C259" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D259" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="27"/>
-      <c r="B260" s="26"/>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="29"/>
+      <c r="B260" s="28"/>
       <c r="C260" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D260" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="27"/>
-      <c r="B261" s="26"/>
+      <c r="A261" s="29"/>
+      <c r="B261" s="28"/>
       <c r="C261" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D261" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A262" s="27"/>
-      <c r="B262" s="26"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="29"/>
+      <c r="B262" s="28"/>
       <c r="C262" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D262" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="D262" s="19" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6068,11 +6045,11 @@
       <c r="C263" s="24"/>
       <c r="D263" s="19"/>
     </row>
-    <row r="264" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A264" s="27" t="s">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B264" s="26" t="s">
+      <c r="B264" s="28" t="s">
         <v>85</v>
       </c>
       <c r="C264" s="24" t="s">
@@ -6082,9 +6059,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="27"/>
-      <c r="B265" s="26"/>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="29"/>
+      <c r="B265" s="28"/>
       <c r="C265" s="25" t="s">
         <v>98</v>
       </c>
@@ -6092,34 +6069,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="27"/>
-      <c r="B266" s="26"/>
+    <row r="266" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="29"/>
+      <c r="B266" s="28"/>
       <c r="C266" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D266" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="27"/>
-      <c r="B267" s="26"/>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="29"/>
+      <c r="B267" s="28"/>
       <c r="C267" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D267" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="27"/>
-      <c r="B268" s="26"/>
+      <c r="A268" s="29"/>
+      <c r="B268" s="28"/>
       <c r="C268" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D268" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="D268" s="19" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6127,11 +6104,11 @@
       <c r="C269" s="24"/>
       <c r="D269" s="19"/>
     </row>
-    <row r="270" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A270" s="27" t="s">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B270" s="26" t="s">
+      <c r="B270" s="28" t="s">
         <v>86</v>
       </c>
       <c r="C270" s="24" t="s">
@@ -6141,9 +6118,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="27"/>
-      <c r="B271" s="26"/>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="29"/>
+      <c r="B271" s="28"/>
       <c r="C271" s="25" t="s">
         <v>98</v>
       </c>
@@ -6151,44 +6128,44 @@
         <v>97</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A272" s="27"/>
-      <c r="B272" s="26"/>
+    <row r="272" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="29"/>
+      <c r="B272" s="28"/>
       <c r="C272" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D272" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A273" s="27"/>
-      <c r="B273" s="26"/>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="29"/>
+      <c r="B273" s="28"/>
       <c r="C273" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D273" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A274" s="27"/>
-      <c r="B274" s="26"/>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="29"/>
+      <c r="B274" s="28"/>
       <c r="C274" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D274" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D274" s="19" t="s">
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="29"/>
+      <c r="B275" s="28"/>
+      <c r="C275" s="25" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A275" s="27"/>
-      <c r="B275" s="26"/>
-      <c r="C275" s="25" t="s">
+      <c r="D275" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="D275" s="19" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6196,11 +6173,11 @@
       <c r="C276" s="24"/>
       <c r="D276" s="19"/>
     </row>
-    <row r="277" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A277" s="27" t="s">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B277" s="26" t="s">
+      <c r="B277" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C277" s="24" t="s">
@@ -6210,9 +6187,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="27"/>
-      <c r="B278" s="26"/>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="29"/>
+      <c r="B278" s="28"/>
       <c r="C278" s="25" t="s">
         <v>98</v>
       </c>
@@ -6220,34 +6197,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A279" s="27"/>
-      <c r="B279" s="26"/>
+    <row r="279" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="29"/>
+      <c r="B279" s="28"/>
       <c r="C279" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D279" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="27"/>
-      <c r="B280" s="26"/>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="29"/>
+      <c r="B280" s="28"/>
       <c r="C280" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D280" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A281" s="27"/>
-      <c r="B281" s="26"/>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="29"/>
+      <c r="B281" s="28"/>
       <c r="C281" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D281" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="D281" s="19" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6255,12 +6232,12 @@
       <c r="C282" s="24"/>
       <c r="D282" s="19"/>
     </row>
-    <row r="283" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A283" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="B283" s="26" t="s">
-        <v>221</v>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B283" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="C283" s="24" t="s">
         <v>25</v>
@@ -6269,9 +6246,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A284" s="27"/>
-      <c r="B284" s="26"/>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="29"/>
+      <c r="B284" s="28"/>
       <c r="C284" s="25" t="s">
         <v>98</v>
       </c>
@@ -6279,34 +6256,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A285" s="27"/>
-      <c r="B285" s="26"/>
+    <row r="285" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285" s="29"/>
+      <c r="B285" s="28"/>
       <c r="C285" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D285" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="27"/>
-      <c r="B286" s="26"/>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="29"/>
+      <c r="B286" s="28"/>
       <c r="C286" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D286" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A287" s="27"/>
-      <c r="B287" s="26"/>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="29"/>
+      <c r="B287" s="28"/>
       <c r="C287" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D287" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="D287" s="19" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6314,12 +6291,12 @@
       <c r="C288" s="24"/>
       <c r="D288" s="19"/>
     </row>
-    <row r="289" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A289" s="27" t="s">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B289" s="26" t="s">
-        <v>222</v>
+      <c r="B289" s="28" t="s">
+        <v>221</v>
       </c>
       <c r="C289" s="24" t="s">
         <v>25</v>
@@ -6328,9 +6305,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="27"/>
-      <c r="B290" s="26"/>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="29"/>
+      <c r="B290" s="28"/>
       <c r="C290" s="25" t="s">
         <v>98</v>
       </c>
@@ -6338,34 +6315,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A291" s="27"/>
-      <c r="B291" s="26"/>
+    <row r="291" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="29"/>
+      <c r="B291" s="28"/>
       <c r="C291" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D291" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="27"/>
-      <c r="B292" s="26"/>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="29"/>
+      <c r="B292" s="28"/>
       <c r="C292" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D292" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A293" s="27"/>
-      <c r="B293" s="26"/>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="29"/>
+      <c r="B293" s="28"/>
       <c r="C293" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D293" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="D293" s="19" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6373,9 +6350,9 @@
       <c r="C294" s="24"/>
       <c r="D294" s="19"/>
     </row>
-    <row r="295" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>92</v>
@@ -6387,7 +6364,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="C296" s="25" t="s">
         <v>98</v>
@@ -6396,31 +6373,31 @@
         <v>97</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="C297" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D297" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="C298" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D298" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="C299" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D299" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6428,9 +6405,9 @@
       <c r="C300" s="24"/>
       <c r="D300" s="19"/>
     </row>
-    <row r="301" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>94</v>
@@ -6442,7 +6419,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="C302" s="25" t="s">
         <v>98</v>
@@ -6451,19 +6428,19 @@
         <v>97</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="C303" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D303" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="C304" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D304" s="19" t="s">
         <v>95</v>
@@ -6472,10 +6449,10 @@
     <row r="305" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="C305" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D305" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="D305" s="19" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -7513,72 +7490,12 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="B289:B293"/>
-    <mergeCell ref="A289:A293"/>
-    <mergeCell ref="B283:B287"/>
-    <mergeCell ref="A283:A287"/>
-    <mergeCell ref="B264:B268"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="B270:B275"/>
-    <mergeCell ref="A270:A275"/>
-    <mergeCell ref="A277:A281"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="A244:A248"/>
-    <mergeCell ref="B244:B248"/>
-    <mergeCell ref="B250:B255"/>
-    <mergeCell ref="A250:A255"/>
-    <mergeCell ref="A257:A262"/>
-    <mergeCell ref="B257:B262"/>
-    <mergeCell ref="B223:B229"/>
-    <mergeCell ref="A223:A229"/>
-    <mergeCell ref="A231:A236"/>
-    <mergeCell ref="B231:B236"/>
-    <mergeCell ref="B238:B242"/>
-    <mergeCell ref="A238:A242"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B216:B221"/>
-    <mergeCell ref="A216:A221"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B169:B174"/>
-    <mergeCell ref="A169:A174"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="B150:B154"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="B138:B142"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B12"/>
@@ -7595,12 +7512,72 @@
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="B34:B39"/>
     <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="B138:B142"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="B150:B154"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B169:B174"/>
+    <mergeCell ref="A169:A174"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="B216:B221"/>
+    <mergeCell ref="A216:A221"/>
+    <mergeCell ref="B223:B229"/>
+    <mergeCell ref="A223:A229"/>
+    <mergeCell ref="A231:A236"/>
+    <mergeCell ref="B231:B236"/>
+    <mergeCell ref="B238:B242"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="A244:A248"/>
+    <mergeCell ref="B244:B248"/>
+    <mergeCell ref="B250:B255"/>
+    <mergeCell ref="A250:A255"/>
+    <mergeCell ref="A257:A262"/>
+    <mergeCell ref="B257:B262"/>
+    <mergeCell ref="B289:B293"/>
+    <mergeCell ref="A289:A293"/>
+    <mergeCell ref="B283:B287"/>
+    <mergeCell ref="A283:A287"/>
+    <mergeCell ref="B264:B268"/>
+    <mergeCell ref="A264:A268"/>
+    <mergeCell ref="B270:B275"/>
+    <mergeCell ref="A270:A275"/>
+    <mergeCell ref="A277:A281"/>
+    <mergeCell ref="B277:B281"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7641,13 +7618,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>234</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>235</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -24038,10 +24015,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>237</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
@@ -24052,16 +24029,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="C7" s="23"/>
       <c r="D7" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
@@ -24072,16 +24049,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="C10" s="23"/>
       <c r="D10" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
@@ -24092,28 +24069,28 @@
         <v>9</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="C13" s="23"/>
       <c r="D13" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="C14" s="23"/>
       <c r="D14" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="C15" s="23"/>
       <c r="D15" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
@@ -24124,10 +24101,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>276</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>277</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -24273,8 +24250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C9E9F4-C273-4770-93D7-BAD82376940C}">
   <dimension ref="A1:H475"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63:C64"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24316,11 +24293,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>235</v>
+      <c r="B2" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>25</v>
@@ -24330,8 +24307,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="25" t="s">
         <v>98</v>
       </c>
@@ -24340,35 +24317,35 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="27"/>
       <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>238</v>
+      <c r="B7" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>25</v>
@@ -24378,8 +24355,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="25" t="s">
         <v>98</v>
       </c>
@@ -24388,45 +24365,45 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D11" s="19" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="C12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>25</v>
@@ -24436,7 +24413,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="27"/>
       <c r="C14" s="25" t="s">
         <v>98</v>
       </c>
@@ -24445,51 +24422,51 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="27"/>
       <c r="C15" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="27"/>
       <c r="C16" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="27"/>
       <c r="C17" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="27"/>
       <c r="C18" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="27"/>
       <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>239</v>
+      <c r="B20" s="37" t="s">
+        <v>238</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>25</v>
@@ -24499,8 +24476,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="25" t="s">
         <v>98</v>
       </c>
@@ -24509,56 +24486,56 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="25" t="s">
+      <c r="D25" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="24"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>240</v>
+      <c r="B27" s="37" t="s">
+        <v>239</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>25</v>
@@ -24568,8 +24545,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="25" t="s">
         <v>98</v>
       </c>
@@ -24578,46 +24555,46 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>241</v>
+      <c r="B33" s="37" t="s">
+        <v>240</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>25</v>
@@ -24627,8 +24604,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="25" t="s">
         <v>98</v>
       </c>
@@ -24637,56 +24614,56 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="33"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D37" s="19" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="25" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="25" t="s">
+      <c r="D38" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="34"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="33" t="s">
-        <v>245</v>
+      <c r="B40" s="37" t="s">
+        <v>244</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>25</v>
@@ -24696,8 +24673,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="25" t="s">
         <v>98</v>
       </c>
@@ -24706,46 +24683,46 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="24"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="37" t="s">
         <v>263</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="24"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>264</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>25</v>
@@ -24755,8 +24732,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="25" t="s">
         <v>98</v>
       </c>
@@ -24764,57 +24741,57 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="33"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="24" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D49" s="19" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D51" s="19" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="34"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>246</v>
+      <c r="A53" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>245</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>25</v>
@@ -24824,8 +24801,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="25" t="s">
         <v>98</v>
       </c>
@@ -24834,66 +24811,66 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D56" s="19" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D58" s="19" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="35"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="25" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="25" t="s">
+      <c r="D59" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D59" s="19" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="34"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="25"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>247</v>
+      <c r="A61" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>246</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>25</v>
@@ -24903,8 +24880,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="25" t="s">
         <v>98</v>
       </c>
@@ -24913,61 +24890,61 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D64" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="19" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="33"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="33"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D66" s="19" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="67" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="33"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="35" t="s">
         <v>35</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>25</v>
@@ -24977,7 +24954,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
+      <c r="A70" s="35"/>
       <c r="C70" s="25" t="s">
         <v>98</v>
       </c>
@@ -24986,38 +24963,38 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
+      <c r="A71" s="35"/>
       <c r="C71" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D71" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
+      <c r="A72" s="35"/>
       <c r="C72" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D72" s="19" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
+      <c r="A73" s="35"/>
       <c r="C73" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="D73" s="19" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
+      <c r="A74" s="35"/>
       <c r="C74" s="25"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
+      <c r="A75" s="35"/>
       <c r="C75" s="25"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -26144,6 +26121,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A69:A75"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
@@ -26160,9 +26140,6 @@
     <mergeCell ref="B61:B67"/>
     <mergeCell ref="B53:B59"/>
     <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A46:A51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
